--- a/Finance Universe/Financial Universe.xlsx
+++ b/Finance Universe/Financial Universe.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.1.4\Alek\Documents\Money\Finance\Crypto Universe\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07CB8912-DDAB-4E93-AED1-FB1B1651EE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FFB895-2427-4AF4-AA86-74D20285B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4095" yWindow="4575" windowWidth="14085" windowHeight="13815" xr2:uid="{F5E62390-CF29-422E-AECC-B0896D6FBA8B}"/>
+    <workbookView xWindow="6930" yWindow="1485" windowWidth="24975" windowHeight="16200" xr2:uid="{F5E62390-CF29-422E-AECC-B0896D6FBA8B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Company</t>
   </si>
@@ -87,12 +87,21 @@
   </si>
   <si>
     <t>2023 E</t>
+  </si>
+  <si>
+    <t>MSTR</t>
+  </si>
+  <si>
+    <t>MicroStrategy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0&quot;X&quot;"/>
+  </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -171,7 +180,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -185,6 +194,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -504,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61681F2E-1AD8-40AA-A71B-F6B6B71FFAE2}">
-  <dimension ref="B2:O3"/>
+  <dimension ref="B2:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,16 +594,34 @@
       <c r="H3" s="6">
         <v>9898.1970000000001</v>
       </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
+      <c r="I3" s="7">
+        <f>H3/K3</f>
+        <v>49.490985000000002</v>
+      </c>
+      <c r="J3" s="7">
+        <f>H3/L3</f>
+        <v>49.490985000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>200</v>
+      </c>
+      <c r="L3" s="6">
+        <v>200</v>
+      </c>
       <c r="M3" s="5"/>
       <c r="N3" s="4">
         <v>0.1</v>
       </c>
       <c r="O3" s="5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Finance Universe/Financial Universe.xlsx
+++ b/Finance Universe/Financial Universe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FFB895-2427-4AF4-AA86-74D20285B018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E605E-A565-46EF-A526-C3CBCDD059E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6930" yWindow="1485" windowWidth="24975" windowHeight="16200" xr2:uid="{F5E62390-CF29-422E-AECC-B0896D6FBA8B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="92">
   <si>
     <t>Company</t>
   </si>
@@ -71,9 +71,6 @@
     <t>COIN</t>
   </si>
   <si>
-    <t>Crypto</t>
-  </si>
-  <si>
     <t>Q322</t>
   </si>
   <si>
@@ -93,6 +90,228 @@
   </si>
   <si>
     <t>MicroStrategy</t>
+  </si>
+  <si>
+    <t>Exchange</t>
+  </si>
+  <si>
+    <t>BitNile</t>
+  </si>
+  <si>
+    <t>NILE</t>
+  </si>
+  <si>
+    <t>Mining, DeFi</t>
+  </si>
+  <si>
+    <t>Core Scientific</t>
+  </si>
+  <si>
+    <t>CORZ</t>
+  </si>
+  <si>
+    <t>Mining, Hosting</t>
+  </si>
+  <si>
+    <t>Galaxy Digital</t>
+  </si>
+  <si>
+    <t>GLXY</t>
+  </si>
+  <si>
+    <t>OTC, Asset Manager, Mining</t>
+  </si>
+  <si>
+    <t>Asset Manager</t>
+  </si>
+  <si>
+    <t>Greenidge</t>
+  </si>
+  <si>
+    <t>GREE</t>
+  </si>
+  <si>
+    <t>Carbon Neutral Mining</t>
+  </si>
+  <si>
+    <t>Marathon Digital</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Riot Blockchain</t>
+  </si>
+  <si>
+    <t>RIOT</t>
+  </si>
+  <si>
+    <t>AMD</t>
+  </si>
+  <si>
+    <t>NVIDIA</t>
+  </si>
+  <si>
+    <t>CME Group</t>
+  </si>
+  <si>
+    <t>PayPal</t>
+  </si>
+  <si>
+    <t>Robinhood</t>
+  </si>
+  <si>
+    <t>Shopify</t>
+  </si>
+  <si>
+    <t>UWM</t>
+  </si>
+  <si>
+    <t>UWMC</t>
+  </si>
+  <si>
+    <t>SHOP</t>
+  </si>
+  <si>
+    <t>HOOD</t>
+  </si>
+  <si>
+    <t>PYPL</t>
+  </si>
+  <si>
+    <t>CME</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>Hardware</t>
+  </si>
+  <si>
+    <t>Derivatives</t>
+  </si>
+  <si>
+    <t>Payment Network</t>
+  </si>
+  <si>
+    <t>OTC</t>
+  </si>
+  <si>
+    <t>Merchanting</t>
+  </si>
+  <si>
+    <t>Lender</t>
+  </si>
+  <si>
+    <t>Transamerica Corporation</t>
+  </si>
+  <si>
+    <t>Conglomerate</t>
+  </si>
+  <si>
+    <t>JP Morgan Chase</t>
+  </si>
+  <si>
+    <t>Banking</t>
+  </si>
+  <si>
+    <t>Fannie Mae</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Citigroup</t>
+  </si>
+  <si>
+    <t>Well Fargo</t>
+  </si>
+  <si>
+    <t>State Farm</t>
+  </si>
+  <si>
+    <t>MetLife</t>
+  </si>
+  <si>
+    <t>Freddie Mac</t>
+  </si>
+  <si>
+    <t>Goldman Sachs</t>
+  </si>
+  <si>
+    <t>Morgan Stanley</t>
+  </si>
+  <si>
+    <t>Investment Services</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Berkshite Hathaway</t>
+  </si>
+  <si>
+    <t>JPM</t>
+  </si>
+  <si>
+    <t>FNMA</t>
+  </si>
+  <si>
+    <t>BAC</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>WFC</t>
+  </si>
+  <si>
+    <t>STFGX</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>FMCC</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>BRKA</t>
+  </si>
+  <si>
+    <t>TSTRX</t>
+  </si>
+  <si>
+    <t>Visa</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Discover Financial Services</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>American Express</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>AXP</t>
   </si>
 </sst>
 </file>
@@ -180,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -197,6 +416,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -516,15 +738,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61681F2E-1AD8-40AA-A71B-F6B6B71FFAE2}">
-  <dimension ref="B2:O4"/>
+  <dimension ref="B2:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -553,16 +779,16 @@
         <v>6</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2" t="s">
@@ -580,27 +806,28 @@
         <v>10</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E3" s="5">
-        <v>43.59</v>
+        <v>45.57</v>
       </c>
       <c r="F3" s="6">
-        <v>7760.2780000000002</v>
+        <v>8150</v>
       </c>
       <c r="G3" s="6">
         <v>2137.9189999999999</v>
       </c>
       <c r="H3" s="6">
-        <v>9898.1970000000001</v>
+        <f>F3+G3</f>
+        <v>10287.919</v>
       </c>
       <c r="I3" s="7">
         <f>H3/K3</f>
-        <v>49.490985000000002</v>
+        <v>51.439594999999997</v>
       </c>
       <c r="J3" s="7">
         <f>H3/L3</f>
-        <v>49.490985000000002</v>
+        <v>51.439594999999997</v>
       </c>
       <c r="K3" s="6">
         <v>200</v>
@@ -613,22 +840,604 @@
         <v>0.1</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="8">
+        <v>176.39</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1650</v>
+      </c>
+      <c r="G4" s="6">
+        <v>51</v>
+      </c>
+      <c r="H4" s="6">
+        <v>1692</v>
+      </c>
+      <c r="I4" s="7">
+        <f>H4/K4</f>
+        <v>84.6</v>
+      </c>
+      <c r="J4" s="7">
+        <f>H4/L4</f>
+        <v>48.342857142857142</v>
+      </c>
+      <c r="K4" s="6">
+        <v>20</v>
+      </c>
+      <c r="L4" s="6">
+        <v>35</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="5"/>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="5"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="8"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="5"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="5"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>68</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B3" r:id="rId1" xr:uid="{A4A71A9C-EAF6-46B6-B928-64A33CFC247E}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{1B3EFD79-BADA-4690-A455-44CB019165C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Finance Universe/Financial Universe.xlsx
+++ b/Finance Universe/Financial Universe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21E605E-A565-46EF-A526-C3CBCDD059E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB28E68-8B34-48D3-8820-D2132B83DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6930" yWindow="1485" windowWidth="24975" windowHeight="16200" xr2:uid="{F5E62390-CF29-422E-AECC-B0896D6FBA8B}"/>
   </bookViews>
@@ -321,7 +321,7 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="0&quot;X&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -369,6 +369,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -399,7 +406,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -421,6 +428,13 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Explanatory Text 2" xfId="2" xr:uid="{88885B85-9318-455C-A569-4E5981D5633A}"/>
@@ -744,7 +758,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C24" sqref="C24"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,10 +843,10 @@
         <f>H3/L3</f>
         <v>51.439594999999997</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="9">
         <v>200</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="9">
         <v>200</v>
       </c>
       <c r="M3" s="5"/>
@@ -860,7 +874,7 @@
         <v>1650</v>
       </c>
       <c r="G4" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H4" s="6">
         <v>1692</v>
@@ -873,10 +887,10 @@
         <f>H4/L4</f>
         <v>48.342857142857142</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="9">
         <v>20</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="9">
         <v>35</v>
       </c>
       <c r="M4" s="5"/>
@@ -903,8 +917,8 @@
       <c r="H5" s="6"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="5"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
@@ -925,8 +939,8 @@
       <c r="H6" s="6"/>
       <c r="I6" s="7"/>
       <c r="J6" s="7"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="5"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
@@ -947,8 +961,8 @@
       <c r="H7" s="6"/>
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="5"/>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
@@ -969,8 +983,8 @@
       <c r="H8" s="6"/>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="5"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
@@ -991,8 +1005,8 @@
       <c r="H9" s="6"/>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="5"/>
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
@@ -1013,8 +1027,8 @@
       <c r="H10" s="6"/>
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="5"/>
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
@@ -1028,8 +1042,8 @@
       <c r="H11" s="6"/>
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="5"/>
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
@@ -1050,8 +1064,8 @@
       <c r="H12" s="6"/>
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
       <c r="M12" s="5"/>
       <c r="N12" s="4"/>
       <c r="O12" s="5"/>
@@ -1072,8 +1086,8 @@
       <c r="H13" s="6"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="5"/>
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
@@ -1094,8 +1108,8 @@
       <c r="H14" s="6"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="5"/>
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
@@ -1116,8 +1130,8 @@
       <c r="H15" s="6"/>
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="5"/>
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
@@ -1138,8 +1152,8 @@
       <c r="H16" s="6"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="5"/>
       <c r="N16" s="4"/>
       <c r="O16" s="5"/>
@@ -1160,8 +1174,8 @@
       <c r="H17" s="6"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="5"/>
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
@@ -1182,8 +1196,8 @@
       <c r="H18" s="6"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="5"/>
       <c r="N18" s="4"/>
       <c r="O18" s="5"/>
@@ -1197,8 +1211,8 @@
       <c r="H19" s="6"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="5"/>
       <c r="N19" s="4"/>
       <c r="O19" s="5"/>
@@ -1219,8 +1233,8 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
@@ -1241,8 +1255,8 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
@@ -1261,8 +1275,8 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
@@ -1281,8 +1295,8 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
       <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
@@ -1294,8 +1308,8 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
       <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
@@ -1310,6 +1324,8 @@
       <c r="D25" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -1321,6 +1337,8 @@
       <c r="D26" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -1332,6 +1350,8 @@
       <c r="D27" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
@@ -1343,6 +1363,8 @@
       <c r="D28" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1354,6 +1376,8 @@
       <c r="D29" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1365,6 +1389,8 @@
       <c r="D30" s="5" t="s">
         <v>59</v>
       </c>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
@@ -1376,6 +1402,8 @@
       <c r="D31" s="5" t="s">
         <v>70</v>
       </c>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -1387,8 +1415,10 @@
       <c r="D32" s="5" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>66</v>
       </c>
@@ -1398,8 +1428,10 @@
       <c r="D33" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>67</v>
       </c>
@@ -1409,8 +1441,10 @@
       <c r="D34" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>68</v>
       </c>
@@ -1420,8 +1454,10 @@
       <c r="D35" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>71</v>
       </c>
@@ -1431,6 +1467,8 @@
       <c r="D36" s="5" t="s">
         <v>57</v>
       </c>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Finance Universe/Financial Universe.xlsx
+++ b/Finance Universe/Financial Universe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\game\Documents\GitHub\finance\Finance Universe\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB28E68-8B34-48D3-8820-D2132B83DB8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B687720-B890-4D14-9F97-93B285AE8B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6930" yWindow="1485" windowWidth="24975" windowHeight="16200" xr2:uid="{F5E62390-CF29-422E-AECC-B0896D6FBA8B}"/>
   </bookViews>
